--- a/docs/07-Power-Budget/EGR304-Team204-PowerBudget.xlsx
+++ b/docs/07-Power-Budget/EGR304-Team204-PowerBudget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/cyuen_sundevils_asu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/680DD397BB286748/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{767DB0B9-BF0D-4524-B870-164823D0A10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6FCE7E-50D4-403C-9EB6-425AE3BC4684}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{83D213E8-5323-4A14-9CF0-5E87043B7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D8A2958-1580-4219-AF86-7E6FCA222F52}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>Power Budget Example</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>(full part number)</t>
-  </si>
-  <si>
     <t>mA</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>c2. Regulator or Source Choice</t>
   </si>
   <si>
-    <t xml:space="preserve"> +5V Regulator</t>
-  </si>
-  <si>
     <t>Total Remaining Current Available on +5V Rail</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>Total Current Required on +3.3V Rail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +3.3V low-dropout regulator</t>
   </si>
   <si>
     <t>C. For each power rail above, select a specific voltage regulator using the same process as for major component selection. Confirm that the Total Remaining Current Available on each rail above is not negative.</t>
@@ -217,12 +208,6 @@
     <t>Motor Driver (logic)</t>
   </si>
   <si>
-    <t>TB6612FNG</t>
-  </si>
-  <si>
-    <t>+3.3V</t>
-  </si>
-  <si>
     <t>+5V</t>
   </si>
   <si>
@@ -235,27 +220,12 @@
     <t>FIT0495-A</t>
   </si>
   <si>
-    <t>+6V</t>
-  </si>
-  <si>
-    <t>Status LEDs (2×)</t>
-  </si>
-  <si>
-    <t>Photoresistor (LDR)</t>
-  </si>
-  <si>
-    <t>Potentiometer (10 k)</t>
-  </si>
-  <si>
     <t>ClapSense</t>
   </si>
   <si>
     <t xml:space="preserve"> +6V Power Rail</t>
   </si>
   <si>
-    <t>DC Gearmotor (via TB6612 VM)</t>
-  </si>
-  <si>
     <t>Total Current Required on +6V Rail</t>
   </si>
   <si>
@@ -265,21 +235,12 @@
     <t>Caleb Yuen</t>
   </si>
   <si>
-    <t>9 V→6 V buck converter</t>
-  </si>
-  <si>
     <t>Total Remaining Current Available on +9V Rail</t>
   </si>
   <si>
     <t>0930</t>
   </si>
   <si>
-    <t xml:space="preserve"> +4.5V - 6V in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +8V - 24V in</t>
-  </si>
-  <si>
     <t>AC/DC Adapter Model 0930</t>
   </si>
   <si>
@@ -289,16 +250,19 @@
     <t>100-240 VAC</t>
   </si>
   <si>
-    <t xml:space="preserve"> +6V regulator</t>
-  </si>
-  <si>
-    <t>5 V→3.3 V LDO/buck converter</t>
-  </si>
-  <si>
-    <t>The Master Controller (Hub) subsystem of the ClapSense project uses a 9 V 2 A AC/DC wall adapter (Model 0930) as the main source. Power is distributed to 6 V, 5 V, and 3.3 V rails through dedicated buck converters. The estimated total current draw is ≈ 0.83 A (1.64 A peak with margin), well within adapter limits. The 6 V rail drives the motor and TB6612FNG VM, the 5 V rail handles logic and power conversion, and the 3.3 V rail powers the PIC18F57Q43 and sensor inputs.</t>
-  </si>
-  <si>
-    <t>9 V→5 V buck converter</t>
+    <t>FAN8100N</t>
+  </si>
+  <si>
+    <t>Status LEDs</t>
+  </si>
+  <si>
+    <t>5-6V</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The Master Controller (Hub) subsystem of the ClapSense project uses a 9 V, 2 A AC/DC wall adapter (Model 0930) as the main source. On the hub PCB, a single LM7805 linear regulator converts 9 V to a 5 V system rail. This 5 V rail powers the PIC18F57Q43 Curiosity Nano, the FAN8100N motor driver, the DFRobot 6 V metal gearmotor (operated at 5 V), and the status LEDs. The worst-case current on the 5 V rail is approximately 0.66 A; with a 25% design margin this becomes about 0.82 A, which is within both the LM7805’s 1 A rating and the 2 A rating of the wall adapter.</t>
   </si>
 </sst>
 </file>
@@ -620,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,17 +687,64 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -743,58 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1146,11 +1105,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1166,22 +1126,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="57">
         <v>204</v>
       </c>
       <c r="D2" s="2"/>
@@ -1191,8 +1151,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>60</v>
+      <c r="B3" s="56" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
@@ -1205,8 +1165,8 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>65</v>
+      <c r="B4" s="56" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2"/>
@@ -1219,8 +1179,8 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="75">
-        <v>1</v>
+      <c r="B5" s="58">
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
@@ -1240,16 +1200,16 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
@@ -1267,7 +1227,7 @@
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="48" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1279,16 +1239,16 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
@@ -1300,21 +1260,21 @@
         <v>25</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -1326,21 +1286,21 @@
         <v>10</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -1352,20 +1312,20 @@
         <v>600</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="66" t="s">
-        <v>57</v>
+      <c r="A12" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="65" t="s">
-        <v>51</v>
+      <c r="D12" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="E12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="16">
         <v>20</v>
@@ -1374,50 +1334,24 @@
         <v>20</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="66" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="51"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <v>5</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="66" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="51"/>
       <c r="B14" s="16"/>
-      <c r="D14" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="17"/>
@@ -1430,20 +1364,20 @@
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
+      <c r="A16" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="67" t="s">
-        <v>61</v>
+      <c r="A17" s="52" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
@@ -1468,32 +1402,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="12" t="str">
-        <f>D11</f>
-        <v>+6V</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>F11</f>
-        <v>1200</v>
-      </c>
-      <c r="G18" s="14">
-        <f>G11</f>
-        <v>600</v>
-      </c>
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1502,7 +1417,7 @@
       <c r="E19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1514,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1526,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1538,35 +1453,35 @@
         <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="11"/>
-      <c r="B23" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="14">
         <f>SUM(G18:G22)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="11"/>
-      <c r="B24" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="B24" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="22">
         <v>0.25</v>
       </c>
@@ -1574,19 +1489,19 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="23"/>
-      <c r="B25" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
+      <c r="B25" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="14">
         <f>G23*(1+G24)</f>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1601,51 +1516,38 @@
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="26">
-        <v>1500</v>
-      </c>
-      <c r="G27" s="27">
-        <f>E27*F27</f>
-        <v>1500</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="28"/>
-      <c r="B28" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="B28" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="27">
         <f>G27-G25</f>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>7</v>
@@ -1671,107 +1573,139 @@
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="13" t="str">
-        <f>D10</f>
-        <v>+5V</v>
+        <v>45</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="13">
         <v>1</v>
       </c>
       <c r="F30">
-        <f>F10</f>
         <v>50</v>
       </c>
       <c r="G30" s="14">
-        <f>G10</f>
+        <v>25</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" s="14">
         <v>10</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="14"/>
       <c r="H31" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="11"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1200</v>
+      </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:G34" si="1">E32*F32</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="11"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>20</v>
+      </c>
       <c r="G33" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="11"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="G34" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="11"/>
-      <c r="B35" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="B35" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="14">
         <f>SUM(G30:G34)</f>
-        <v>10</v>
+        <v>655</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="11"/>
-      <c r="B36" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="B36" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="22">
         <v>0.25</v>
       </c>
@@ -1779,19 +1713,19 @@
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="23"/>
-      <c r="B37" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="B37" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="14">
         <f>G35*(1+G36)</f>
-        <v>12.5</v>
+        <v>818.75</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1806,52 +1740,44 @@
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="12" t="str">
-        <f>D27</f>
-        <v xml:space="preserve"> +8V - 24V in</v>
-      </c>
-      <c r="E39" s="12">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="26">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="27">
-        <f>E39*F39</f>
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="28"/>
-      <c r="B40" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+      <c r="B40" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="27">
         <f>G39-G37</f>
-        <v>987.5</v>
+        <v>1.25</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="70" t="s">
-        <v>64</v>
+      <c r="A41" s="54" t="s">
+        <v>54</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>7</v>
@@ -1876,124 +1802,73 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="12" t="str">
-        <f>D9</f>
-        <v>+3.3V</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1</v>
-      </c>
-      <c r="F42" s="16">
-        <f>F9</f>
-        <v>50</v>
-      </c>
-      <c r="G42" s="15">
-        <f>G9</f>
-        <v>25</v>
-      </c>
+      <c r="A42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="66" t="s">
-        <v>57</v>
-      </c>
+      <c r="A43" s="51"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="12">
-        <v>2</v>
-      </c>
-      <c r="F43" s="16">
-        <v>20</v>
-      </c>
-      <c r="G43" s="14">
-        <v>20</v>
-      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="66" t="s">
-        <v>58</v>
-      </c>
+      <c r="A44" s="51"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44" s="14">
-        <v>5</v>
-      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="13"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="66" t="s">
-        <v>59</v>
-      </c>
+      <c r="A45" s="51"/>
       <c r="B45" s="16"/>
-      <c r="D45" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="13">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45" s="14">
-        <v>2</v>
-      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="13"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="11"/>
-      <c r="B46" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="B46" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="14">
         <f>SUM(G41:G45)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="11"/>
-      <c r="B47" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
+      <c r="B47" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="22">
         <v>0.25</v>
       </c>
@@ -2001,19 +1876,19 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="11"/>
-      <c r="B48" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="B48" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="14">
         <f>G46*(1+G47)</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -2028,85 +1903,72 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="26">
-        <v>300</v>
-      </c>
-      <c r="G50" s="27">
-        <f>E50*F50</f>
-        <v>300</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="28"/>
-      <c r="B51" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
+      <c r="B51" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
       <c r="G51" s="27">
         <f>G50-G48</f>
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="A52" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="65"/>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="73"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
+      <c r="A54" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="65"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>7</v>
@@ -2118,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>11</v>
@@ -2131,29 +1993,29 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="76" t="s">
-        <v>37</v>
+      <c r="A56" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="F56" s="26">
         <v>2000</v>
       </c>
       <c r="G56" s="32">
-        <v>2000</v>
+        <v>820</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -2167,84 +2029,56 @@
       <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>74</v>
-      </c>
+      <c r="A58" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="55"/>
       <c r="C58" s="25"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="12">
-        <v>1</v>
-      </c>
-      <c r="F58" s="26">
-        <v>750</v>
-      </c>
-      <c r="G58" s="27">
-        <f t="shared" ref="G58:G60" si="2">E58*F58</f>
-        <v>750</v>
-      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="56"/>
-      <c r="B59" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A59" s="75"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="12">
-        <v>1</v>
-      </c>
-      <c r="F59" s="26">
-        <v>13</v>
-      </c>
-      <c r="G59" s="27">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="56"/>
-      <c r="B60" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="A60" s="75"/>
+      <c r="B60" s="60"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="13">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>65</v>
-      </c>
-      <c r="G60" s="14">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
+      <c r="E60" s="13"/>
+      <c r="G60" s="14"/>
       <c r="H60" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="34"/>
-      <c r="B61" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
+      <c r="B61" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="32">
         <f>G56-SUM(G58:G60)</f>
-        <v>1172</v>
+        <v>820</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -2259,7 +2093,7 @@
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>7</v>
@@ -2271,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>11</v>
@@ -2285,7 +2119,7 @@
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="12"/>
@@ -2294,7 +2128,7 @@
       <c r="F64" s="26"/>
       <c r="G64" s="32"/>
       <c r="H64" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -2308,8 +2142,8 @@
       <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="55" t="s">
-        <v>38</v>
+      <c r="A66" s="74" t="s">
+        <v>35</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -2318,11 +2152,11 @@
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
       <c r="H66" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="56"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="12"/>
@@ -2332,7 +2166,7 @@
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="56"/>
+      <c r="A68" s="75"/>
       <c r="B68" s="16"/>
       <c r="D68" s="12"/>
       <c r="E68" s="13"/>
@@ -2341,19 +2175,19 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="34"/>
-      <c r="B69" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
+      <c r="B69" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="32">
         <f>G64-SUM(G66:G68)</f>
         <v>0</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -2366,14 +2200,14 @@
       <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="58"/>
+      <c r="A71" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="77"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
     </row>
@@ -2390,17 +2224,17 @@
       </c>
       <c r="E72" s="43"/>
       <c r="F72" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G72" s="45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="11"/>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="13"/>
@@ -2416,77 +2250,77 @@
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G74" s="14" t="e">
         <f>F73/G73</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
+      <c r="A75" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
+      <c r="A76" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
     </row>
     <row r="77" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:H77"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A76:H77"/>
   </mergeCells>
   <conditionalFormatting sqref="G28 G40 G51">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
